--- a/individual_case_outputs/avey/26.xlsx
+++ b/individual_case_outputs/avey/26.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>chronic pancreatitis</t>
+          <t>acute pancreatitis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -597,7 +597,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>chronic pancreatitis</t>
+          <t>pancreatic cancer</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>chronic pancreatitis</t>
+          <t>acute pancreatitis</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -718,7 +718,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>chronic gastritis</t>
+          <t>gastric cancer</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>chronic pancreatitis</t>
+          <t>acute pancreatitis</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -809,14 +809,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>stomach ulcer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>chronic gastritis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>chronic gastritis</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>acute cholangitis</t>
@@ -824,7 +824,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>chronic gastritis</t>
+          <t>peptic ulcer disease</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -853,7 +853,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>chronic gastritis</t>
+          <t>gastric and/or duodenal ulcer</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>chronic pancreatitis</t>
+          <t>acute necrotizing pancreatitis</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1017,7 +1017,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>pancreatic cancer</t>
+          <t>pancreatic pseudocyst</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
